--- a/assets/stages/maps/MapEditor/Room4.xlsx
+++ b/assets/stages/maps/MapEditor/Room4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6688BD43-9B90-4485-A8DD-F9789624F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F72794-4860-4E0E-9046-37C555B41631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2095,13 +2095,13 @@
         <v>-1</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA17" s="1">
         <v>2</v>
@@ -2193,13 +2193,13 @@
         <v>-1</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA18" s="1">
         <v>1</v>
@@ -2244,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4905B0EA-B01B-4E77-AA7D-C9D770F6509D}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>

--- a/assets/stages/maps/MapEditor/Room4.xlsx
+++ b/assets/stages/maps/MapEditor/Room4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18341C-C78B-44DD-BC08-583BD7B6D834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC848D6-5D4B-4778-9F83-93427BE88BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +46,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +75,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,11 +431,12 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,11 +569,11 @@
       <c r="J2" s="1">
         <v>3</v>
       </c>
-      <c r="K2" s="6">
-        <v>2</v>
-      </c>
-      <c r="L2" s="6">
-        <v>2</v>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
       </c>
       <c r="M2" s="1">
         <v>3</v>
@@ -830,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="AF4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -838,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>-1</v>
@@ -925,10 +924,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -936,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>-1</v>
@@ -1023,10 +1022,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF6" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1034,94 +1033,94 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1">
         <v>1</v>
@@ -1132,94 +1131,94 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
         <v>1</v>
@@ -1230,94 +1229,94 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="K9" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="1">
         <v>1</v>
@@ -1328,94 +1327,94 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
         <v>1</v>
@@ -1426,94 +1425,94 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1">
         <v>1</v>
@@ -1527,28 +1526,28 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
@@ -1557,58 +1556,58 @@
         <v>3</v>
       </c>
       <c r="M12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="1">
         <v>3</v>
@@ -1649,10 +1648,10 @@
         <v>-1</v>
       </c>
       <c r="K13" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="1">
         <v>-1</v>
@@ -1747,10 +1746,10 @@
         <v>-1</v>
       </c>
       <c r="K14" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L14" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M14" s="1">
         <v>-1</v>
@@ -1845,70 +1844,70 @@
         <v>-1</v>
       </c>
       <c r="K15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="1">
         <v>2</v>
       </c>
-      <c r="L15" s="1">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>-1</v>
-      </c>
       <c r="AF15" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1943,70 +1942,70 @@
         <v>-1</v>
       </c>
       <c r="K16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="1">
         <v>2</v>
       </c>
-      <c r="L16" s="1">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>-1</v>
-      </c>
       <c r="AF16" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2053,52 +2052,52 @@
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="1">
         <v>1</v>
@@ -2151,40 +2150,40 @@
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="1">
         <v>1</v>
@@ -2207,7 +2206,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AC2 AC1:AF3 C2:AE3 AE2:AE14 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 H5:J12 V5:AF12 N5:N13 C5:H14 A5:B18 C6:Q7 S6:AF7 R6:R8 M6:M16 B7:AF12 C7:G16 K10:L14 C12:AF18">
+  <conditionalFormatting sqref="A1:AC2 AC1:AF3 B2:AD2 C2:AE3 AE2:AE10 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 V5:AF12 C5:H14 A5:B18 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 B7:AF12 C8:G16 C12:AF18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2230,7 +2229,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2400,6 +2399,9 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
+      <c r="AF5" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2433,6 +2435,9 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
+      <c r="AF6" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2734,9 +2739,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="2">
-        <v>3</v>
-      </c>
+      <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -2770,9 +2773,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="2">
-        <v>3</v>
-      </c>
+      <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2864,21 +2865,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="L14:AF15"/>
+  <dimension ref="A5:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="32" width="2.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="14" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="AF14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="L15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF15">
         <v>1</v>
       </c>
     </row>

--- a/assets/stages/maps/MapEditor/Room4.xlsx
+++ b/assets/stages/maps/MapEditor/Room4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC848D6-5D4B-4778-9F83-93427BE88BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D5378-BB1A-4794-8A6B-EAAAD0EBFCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2865,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A5:AF15"/>
+  <dimension ref="A4:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2876,6 +2876,11 @@
     <col min="1" max="32" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF4">
+        <v>7</v>
+      </c>
+    </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>

--- a/assets/stages/maps/MapEditor/Room4.xlsx
+++ b/assets/stages/maps/MapEditor/Room4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE43555-F61B-4215-9C79-C79A80BA2352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A303FC5-8ED7-49D2-A67E-BED404E8F3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="N4" sqref="N4:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2853,12 +2853,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="O3:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2900,31 +2959,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="P4:Q15"/>
+  <dimension ref="O3:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O3:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>16</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>16</v>
+      </c>
       <c r="P4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="16:17" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>16</v>
+      </c>
       <c r="P5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="16:17" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="15:18" x14ac:dyDescent="0.25">
       <c r="P14">
         <v>0</v>
       </c>
@@ -2932,7 +3020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="15:18" x14ac:dyDescent="0.25">
       <c r="P15">
         <v>0</v>
       </c>
